--- a/bd.xlsx
+++ b/bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\red-horse-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3B9CB1-97C7-4977-98F4-7C261915B072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF800B62-4F14-44CD-BCDE-2D5DE84E4745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7725" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="345">
   <si>
     <t>Меня зовут конь Ти-дон, соокращенно от "Тихого Дона"</t>
   </si>
@@ -1374,7 +1374,43 @@
 - Потому что водитель не должен был полагаться только на собственные мозги.</t>
   </si>
   <si>
-    <t>казачеств</t>
+    <t xml:space="preserve">анекд шутк </t>
+  </si>
+  <si>
+    <t>смешн</t>
+  </si>
+  <si>
+    <t>невест</t>
+  </si>
+  <si>
+    <t>дел заним</t>
+  </si>
+  <si>
+    <t>молод красав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">наход </t>
+  </si>
+  <si>
+    <t>врем</t>
+  </si>
+  <si>
+    <t>отдох купат загор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">слыш голос громк </t>
+  </si>
+  <si>
+    <t xml:space="preserve">фильм </t>
+  </si>
+  <si>
+    <t>язык словар</t>
+  </si>
+  <si>
+    <t>прокати покатай покат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лет стар молод взросл возраст </t>
   </si>
 </sst>
 </file>
@@ -1750,10 +1786,10 @@
   <dimension ref="A1:E1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>221</v>
       </c>
@@ -1955,7 +1991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>222</v>
       </c>
@@ -1966,7 +2002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>223</v>
       </c>
@@ -1977,7 +2013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>229</v>
       </c>
@@ -1988,7 +2024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>230</v>
       </c>
@@ -1999,7 +2035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>231</v>
       </c>
@@ -2010,7 +2046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>233</v>
       </c>
@@ -2021,7 +2057,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>235</v>
       </c>
@@ -2032,7 +2068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>236</v>
       </c>
@@ -2043,7 +2079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>237</v>
       </c>
@@ -2054,7 +2090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>238</v>
       </c>
@@ -2065,7 +2101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>239</v>
       </c>
@@ -2076,7 +2112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>240</v>
       </c>
@@ -2086,8 +2122,11 @@
       <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="9" t="s">
         <v>46</v>
@@ -2095,8 +2134,11 @@
       <c r="C30" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>242</v>
       </c>
@@ -2106,8 +2148,11 @@
       <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>243</v>
       </c>
@@ -2116,6 +2161,9 @@
       </c>
       <c r="C32" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -2128,6 +2176,9 @@
       <c r="C33" s="3" t="s">
         <v>195</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
@@ -2153,6 +2204,9 @@
       <c r="C35" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="36" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -2164,6 +2218,9 @@
       <c r="C36" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="37" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
@@ -2175,6 +2232,9 @@
       <c r="C37" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="38" spans="1:4" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
@@ -2186,6 +2246,9 @@
       <c r="C38" s="3" t="s">
         <v>191</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="39" spans="1:4" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
@@ -2197,6 +2260,9 @@
       <c r="C39" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="40" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -2208,6 +2274,9 @@
       <c r="C40" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="41" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -2218,6 +2287,9 @@
       </c>
       <c r="C41" s="3" t="s">
         <v>64</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
